--- a/documents/activity-tracker.xlsx
+++ b/documents/activity-tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\teamservicerepo\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Team-Service\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D175E682-CD6F-4436-B3C9-DA658246EF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ABFA70-A2E2-440E-9F3B-F3C1E35C0905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
   <si>
     <t>Status</t>
   </si>
@@ -428,6 +428,9 @@
   <si>
     <t>1.There is barchart in which distribution of team-members on the basis of grade are there
 2. There is piechart in which distribution of employees on the basis of skills are there</t>
+  </si>
+  <si>
+    <t>charts are not displaying data</t>
   </si>
 </sst>
 </file>
@@ -885,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -1917,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF645C8-7E65-403D-BB09-4C1B4F8E93EF}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2123,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
-        <v>1008</v>
+        <v>10008</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>93</v>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
-        <v>1009</v>
+        <v>10009</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>94</v>
@@ -2167,6 +2170,32 @@
         <v>19</v>
       </c>
       <c r="H9" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>10010</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="25">
+        <v>45155</v>
+      </c>
+      <c r="F10" s="25">
+        <v>45155</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>18</v>
       </c>
     </row>

--- a/documents/activity-tracker.xlsx
+++ b/documents/activity-tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Team-Service\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ABFA70-A2E2-440E-9F3B-F3C1E35C0905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7687E1-01E5-4966-8EBE-3D138B44E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>Status</t>
   </si>
@@ -431,6 +431,45 @@
   </si>
   <si>
     <t>charts are not displaying data</t>
+  </si>
+  <si>
+    <t>WFO/Leave</t>
+  </si>
+  <si>
+    <t>Designing of the page</t>
+  </si>
+  <si>
+    <t>1. In this first design the table and add a datepicker where the month and year is selected.
+2. Then add a WFO preferences in which there are Mon,Tue,Wed,Thu,Fri options to allow tea m members to select WFO day
+3.Then design the table</t>
+  </si>
+  <si>
+    <t>Add WFO prefrences functionality</t>
+  </si>
+  <si>
+    <t>1. If team member login, he will be able to see the WFO preferences for current month only one time, after click on apply it disappear.
+2.Team member will not be able to see the WFO prefrences for previous month.
+3. On click on apply data will be displayed for whole month in which WFO days are of Wfo preferences and saturday sunday is displayed by smile and rest are WFH</t>
+  </si>
+  <si>
+    <t>WFO/WFH/Leave</t>
+  </si>
+  <si>
+    <t>Team member will only be able to see only his attendance
+If admin or manager login they will be able to see all team member attendance.
+User will be able to change forecast on click on cell of current date and above current date but admin and manager are allowed to change forecast of any date</t>
+  </si>
+  <si>
+    <t>TO,TH,TL are not displayed correctly</t>
+  </si>
+  <si>
+    <t>Tooltip is not correct</t>
+  </si>
+  <si>
+    <t>UI of edit is not correct</t>
+  </si>
+  <si>
+    <t>On click on Team Service it will redirect to dashboard page</t>
   </si>
 </sst>
 </file>
@@ -886,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="102" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,6 +1951,93 @@
         <v>18</v>
       </c>
     </row>
+    <row r="35" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="22">
+        <v>2</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="26">
+        <v>45157</v>
+      </c>
+      <c r="I35" s="26">
+        <v>45157</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3</v>
+      </c>
+      <c r="E36" s="22">
+        <v>3</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="26">
+        <v>45157</v>
+      </c>
+      <c r="I36" s="26">
+        <v>45157</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="22">
+        <v>5</v>
+      </c>
+      <c r="E37" s="22">
+        <v>5.5</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="26">
+        <v>45158</v>
+      </c>
+      <c r="I37" s="26">
+        <v>45158</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1920,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF645C8-7E65-403D-BB09-4C1B4F8E93EF}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2199,6 +2325,110 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>10011</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="25">
+        <v>45157</v>
+      </c>
+      <c r="F11" s="25">
+        <v>45157</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>10012</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="25">
+        <v>45158</v>
+      </c>
+      <c r="F12" s="25">
+        <v>45158</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>10013</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="25">
+        <v>45160</v>
+      </c>
+      <c r="F13" s="25">
+        <v>45160</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>10014</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="25">
+        <v>45160</v>
+      </c>
+      <c r="F14" s="25">
+        <v>45160</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/activity-tracker.xlsx
+++ b/documents/activity-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\Team-Service\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7687E1-01E5-4966-8EBE-3D138B44E609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BA9882-8DCB-4FB3-8165-9F8C1F3F7148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -927,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,7 +1835,7 @@
         <v>45154</v>
       </c>
       <c r="I30" s="26">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="J30" s="22" t="s">
         <v>18</v>
@@ -2048,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF645C8-7E65-403D-BB09-4C1B4F8E93EF}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
